--- a/fMRI Tasks/WASABI Task-T1/N-back-2.xlsx
+++ b/fMRI Tasks/WASABI Task-T1/N-back-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Dartmouth College)\CANLab Projects\WASABI\Paradigms\WASABI_Main\WASABI_Nback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msun\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI Task-T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A06DD-09A0-4719-A8B8-28E5B5C9E777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="32070" yWindow="-23880" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="13">
   <si>
     <t>location</t>
   </si>
@@ -68,11 +63,14 @@
   <si>
     <t>space</t>
   </si>
+  <si>
+    <t>square</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,19 +422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -452,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -468,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -476,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -484,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -495,7 +494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -503,7 +502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -511,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -519,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -527,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -538,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -546,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -554,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -565,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -573,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -581,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -589,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -597,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -605,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -613,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -624,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -632,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -640,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -651,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -659,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -667,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -675,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -683,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -691,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -702,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -710,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -718,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -729,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -737,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -745,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -753,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -761,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -769,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -780,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -788,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -796,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -807,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -815,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -823,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -831,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -839,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -847,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -855,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -866,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -874,7 +873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -882,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -893,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -901,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -909,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>9</v>
       </c>
@@ -917,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -925,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -936,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -944,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -952,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -960,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -968,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -976,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -984,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>9</v>
       </c>
@@ -992,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>6</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>6</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>5</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>9</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>9</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -1482,16 +1481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1840,7 +1839,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D30">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fMRI Tasks/WASABI Task-T1/N-back-2.xlsx
+++ b/fMRI Tasks/WASABI Task-T1/N-back-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msun\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI Task-T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A06DD-09A0-4719-A8B8-28E5B5C9E777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF46FA1-D8D3-4706-8678-72FE95E091D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32070" yWindow="-23880" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="13">
   <si>
     <t>location</t>
   </si>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -490,8 +492,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,8 +535,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,8 +562,8 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,8 +621,8 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,8 +648,8 @@
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,8 +699,8 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
+      <c r="C31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,8 +726,8 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
+      <c r="C34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,8 +777,8 @@
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,8 +804,8 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
+      <c r="C43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,8 +863,8 @@
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,8 +890,8 @@
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
+      <c r="C53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,8 +933,8 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
+      <c r="C58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,8 +1008,8 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
+      <c r="C67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,8 +1051,8 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" t="s">
-        <v>11</v>
+      <c r="C72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,8 +1078,8 @@
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
+      <c r="C75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,8 +1137,8 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
-        <v>11</v>
+      <c r="C82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,8 +1164,8 @@
       <c r="B85" t="s">
         <v>5</v>
       </c>
-      <c r="C85" t="s">
-        <v>11</v>
+      <c r="C85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,8 +1215,8 @@
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
+      <c r="C91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,8 +1242,8 @@
       <c r="B94" t="s">
         <v>7</v>
       </c>
-      <c r="C94" t="s">
-        <v>11</v>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,8 +1293,8 @@
       <c r="B100" t="s">
         <v>5</v>
       </c>
-      <c r="C100" t="s">
-        <v>11</v>
+      <c r="C100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,8 +1320,8 @@
       <c r="B103" t="s">
         <v>4</v>
       </c>
-      <c r="C103" t="s">
-        <v>11</v>
+      <c r="C103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,8 +1379,8 @@
       <c r="B110" t="s">
         <v>7</v>
       </c>
-      <c r="C110" t="s">
-        <v>11</v>
+      <c r="C110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,8 +1406,8 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" t="s">
-        <v>11</v>
+      <c r="C113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,8 +1449,8 @@
       <c r="B118" t="s">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
-        <v>11</v>
+      <c r="C118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
